--- a/Aula_Pratica_05/Preparação/Esquemas de raciocínio/Preparação alínea b).xlsx
+++ b/Aula_Pratica_05/Preparação/Esquemas de raciocínio/Preparação alínea b).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goncalo\Documents\FEUP\LSDi\Aula_Pratica_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goncalo\Documents\FEUP\LSDi\Aula_Pratica_05\Preparação\Esquemas de raciocínio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
   <si>
     <t>Linguagem Simbólica</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>u</t>
-  </si>
-  <si>
-    <t>------------</t>
   </si>
   <si>
     <t>r</t>
@@ -171,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +202,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,7 +229,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,14 +265,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -254,12 +277,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -272,6 +289,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -281,19 +316,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,724 +612,623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="14" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="11" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8" t="s">
+      <c r="I2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="17" t="str">
-        <f>CONCATENATE(B3,C3,D3)</f>
-        <v>00010000</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="9" t="str">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="6" t="str">
         <f>BIN2HEX(CONCATENATE(B3,C3,D3))</f>
         <v>10</v>
       </c>
-      <c r="L3" s="9">
+      <c r="J3" s="6">
         <f>BIN2DEC(CONCATENATE(B3,C3,D3))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="17" t="str">
-        <f t="shared" ref="E4:E16" si="0">CONCATENATE(B4,C4,D4)</f>
-        <v>00010001</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="6" t="str">
+        <f t="shared" ref="I4:I10" si="0">BIN2HEX(CONCATENATE(B4,C4,D4))</f>
+        <v>11</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" ref="J4:J10" si="1">BIN2DEC(CONCATENATE(B4,C4,D4))</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="9" t="str">
-        <f t="shared" ref="K4:K10" si="1">BIN2HEX(CONCATENATE(B4,C4,D4))</f>
-        <v>11</v>
-      </c>
-      <c r="L4" s="9">
-        <f t="shared" ref="L4:L10" si="2">BIN2DEC(CONCATENATE(B4,C4,D4))</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="17" t="str">
+      <c r="G6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>00010010</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>00000011</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="9" t="str">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L6" s="9">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="17" t="str">
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>00001000</v>
-      </c>
-      <c r="F7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="9" t="str">
+      <c r="I8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L7" s="9">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="17" t="str">
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>00110110</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="L8" s="9">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="17" t="str">
-        <f>CONCATENATE(B9,C9,D9)</f>
-        <v>00000100</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L9" s="9">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="11" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="17" t="str">
+      <c r="F10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>01001100</v>
-      </c>
-      <c r="F10" s="10" t="s">
+        <v>4C</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>4C</v>
-      </c>
-      <c r="L10" s="9">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="17" t="str">
-        <f>CONCATENATE(B11,C11,D11)</f>
-        <v>01001011</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="9" t="str">
+      <c r="I11" s="6" t="str">
         <f>BIN2HEX(CONCATENATE(B11,C11,D11))</f>
         <v>4B</v>
       </c>
-      <c r="L11" s="9">
+      <c r="J11" s="6">
         <f>BIN2DEC(CONCATENATE(B11,C11,D11))</f>
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="17" t="str">
-        <f>CONCATENATE(B12,C12,D12)</f>
-        <v>00001000</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="H12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="6" t="str">
+        <f>BIN2HEX(CONCATENATE(B12,C12,D12))</f>
+        <v>8</v>
+      </c>
+      <c r="J12" s="6">
+        <f>BIN2DEC(CONCATENATE(B12,C12,D12))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="9" t="str">
-        <f>BIN2HEX(CONCATENATE(B12,C12,D12))</f>
-        <v>8</v>
-      </c>
-      <c r="L12" s="9">
-        <f>BIN2DEC(CONCATENATE(B12,C12,D12))</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="17" t="str">
-        <f>CONCATENATE(B13,C13,D13)</f>
-        <v>00110110</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="9" t="str">
+      <c r="H13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="6" t="str">
         <f>BIN2HEX(CONCATENATE(B13,C13,D13))</f>
         <v>36</v>
       </c>
-      <c r="L13" s="9">
+      <c r="J13" s="6">
         <f>BIN2DEC(CONCATENATE(B13,C13,D13))</f>
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="11" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="17" t="str">
-        <f>CONCATENATE(B14,C14,D14)</f>
-        <v>00001100</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="9" t="str">
+      <c r="H14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="6" t="str">
         <f>BIN2HEX(CONCATENATE(B14,C14,D14))</f>
         <v>C</v>
       </c>
-      <c r="L14" s="9">
+      <c r="J14" s="6">
         <f>BIN2DEC(CONCATENATE(B14,C14))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="13">
+        <v>101</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6">
-        <v>101</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>10101000</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="9" t="str">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="6" t="str">
         <f>BIN2HEX(CONCATENATE(B15,C15))</f>
         <v>A8</v>
       </c>
-      <c r="L15" s="9">
+      <c r="J15" s="6">
         <f>BIN2DEC(CONCATENATE(B15,C15,D15))</f>
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="11" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>00001100</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="9" t="str">
+      <c r="H16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="6" t="str">
         <f>BIN2HEX(CONCATENATE(B16,C16,D16))</f>
         <v>C</v>
       </c>
-      <c r="L16" s="9">
+      <c r="J16" s="6">
         <f>BIN2DEC(CONCATENATE(B16,C16,D16))</f>
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A18:L24"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A18:J24"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="C15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
